--- a/13.0 FORMATO N°05-B REGISTRO AGREGADO DE IDEAS/F 5B IE SANTA ROSA.xlsx
+++ b/13.0 FORMATO N°05-B REGISTRO AGREGADO DE IDEAS/F 5B IE SANTA ROSA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0005\13.0 FORMATO N°05-B REGISTRO AGREGADO DE IDEAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Documents\GitHub\IOARR0006\13.0 FORMATO N°05-B REGISTRO AGREGADO DE IDEAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD219DD7-E660-4FC7-8047-9F40978B6FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
   </bookViews>
   <sheets>
     <sheet name="F08 IDEA IOARR" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'F08 IDEA IOARR'!$A$1:$M$104</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -299,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -729,23 +727,44 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -756,106 +775,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -952,23 +950,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1004,23 +985,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1196,7 +1160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1220,66 +1184,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1305,15 +1269,15 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="93"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
     </row>
@@ -1351,19 +1315,19 @@
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -1385,17 +1349,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -1403,17 +1367,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -1421,17 +1385,17 @@
         <v>12</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -1439,17 +1403,17 @@
         <v>13</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1483,19 +1447,19 @@
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -1513,21 +1477,21 @@
     </row>
     <row r="20" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="67" t="s">
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
@@ -1543,21 +1507,21 @@
     </row>
     <row r="22" spans="1:12" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
       <c r="G22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
@@ -1664,19 +1628,19 @@
       <c r="A29" s="4">
         <v>4</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -1698,17 +1662,17 @@
         <v>4</v>
       </c>
       <c r="C31" s="28"/>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="64"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="71"/>
     </row>
     <row r="32" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
@@ -1716,17 +1680,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="28"/>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="64"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="71"/>
     </row>
     <row r="33" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -1734,17 +1698,17 @@
         <v>6</v>
       </c>
       <c r="C33" s="28"/>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="71"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1752,17 +1716,17 @@
         <v>7</v>
       </c>
       <c r="C34" s="28"/>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="64"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="71"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
@@ -1796,19 +1760,19 @@
       <c r="A37" s="4">
         <v>5</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -1830,17 +1794,17 @@
         <v>4</v>
       </c>
       <c r="C39" s="28"/>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="64"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="71"/>
     </row>
     <row r="40" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
@@ -1848,17 +1812,17 @@
         <v>5</v>
       </c>
       <c r="C40" s="28"/>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="64"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="71"/>
     </row>
     <row r="41" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -1866,17 +1830,17 @@
         <v>8</v>
       </c>
       <c r="C41" s="28"/>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="64"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="71"/>
     </row>
     <row r="42" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -1884,17 +1848,17 @@
         <v>9</v>
       </c>
       <c r="C42" s="28"/>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="64"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="71"/>
     </row>
     <row r="43" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -1928,19 +1892,19 @@
       <c r="A45" s="4">
         <v>6</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
     </row>
     <row r="46" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -1962,17 +1926,17 @@
         <v>4</v>
       </c>
       <c r="C47" s="28"/>
-      <c r="D47" s="62" t="s">
+      <c r="D47" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="64"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="71"/>
     </row>
     <row r="48" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
@@ -1980,17 +1944,17 @@
         <v>5</v>
       </c>
       <c r="C48" s="28"/>
-      <c r="D48" s="62" t="s">
+      <c r="D48" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="64"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="71"/>
     </row>
     <row r="49" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
@@ -1998,17 +1962,17 @@
         <v>3</v>
       </c>
       <c r="C49" s="28"/>
-      <c r="D49" s="62" t="s">
+      <c r="D49" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="64"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="71"/>
     </row>
     <row r="50" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -2042,19 +2006,19 @@
       <c r="A52" s="4">
         <v>7</v>
       </c>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
     </row>
     <row r="53" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -2078,13 +2042,13 @@
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
     </row>
     <row r="55" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -2104,14 +2068,14 @@
     </row>
     <row r="56" spans="1:12" s="29" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -2156,10 +2120,10 @@
       <c r="C59" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="69" t="s">
+      <c r="D59" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="69"/>
+      <c r="E59" s="66"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -2176,10 +2140,10 @@
       <c r="C60" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="70" t="s">
+      <c r="D60" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="71"/>
+      <c r="E60" s="91"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -2219,19 +2183,19 @@
       <c r="A63" s="4">
         <v>8</v>
       </c>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
     </row>
     <row r="64" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
@@ -2248,85 +2212,85 @@
     </row>
     <row r="65" spans="1:12" s="35" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="86" t="s">
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="81"/>
-      <c r="I65" s="81"/>
-      <c r="J65" s="81"/>
-      <c r="K65" s="81"/>
-      <c r="L65" s="81"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
     </row>
     <row r="66" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="61" t="s">
+      <c r="B66" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="56">
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="92">
         <v>369853.65</v>
       </c>
-      <c r="F66" s="57"/>
-      <c r="G66" s="66">
+      <c r="F66" s="93"/>
+      <c r="G66" s="76">
         <v>699</v>
       </c>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="82"/>
-      <c r="K66" s="82"/>
-      <c r="L66" s="82"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="77"/>
     </row>
     <row r="67" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
       <c r="E67" s="33"/>
       <c r="F67" s="28"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="82"/>
-      <c r="K67" s="82"/>
-      <c r="L67" s="82"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="77"/>
+      <c r="K67" s="77"/>
+      <c r="L67" s="77"/>
     </row>
     <row r="68" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
       <c r="E68" s="33"/>
       <c r="F68" s="28"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="82"/>
-      <c r="K68" s="82"/>
-      <c r="L68" s="82"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
     </row>
     <row r="69" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
       <c r="E69" s="33"/>
       <c r="F69" s="28"/>
-      <c r="G69" s="66">
+      <c r="G69" s="76">
         <v>2</v>
       </c>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="82"/>
-      <c r="K69" s="82"/>
-      <c r="L69" s="82"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
     </row>
     <row r="70" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -2345,19 +2309,19 @@
       <c r="A71" s="4">
         <v>9</v>
       </c>
-      <c r="B71" s="60" t="s">
+      <c r="B71" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
     </row>
     <row r="72" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -2374,33 +2338,33 @@
     </row>
     <row r="73" spans="1:12" s="29" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="69" t="s">
+      <c r="B73" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="86" t="s">
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="87"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="81"/>
-      <c r="I73" s="81"/>
-      <c r="J73" s="81"/>
-      <c r="K73" s="81"/>
-      <c r="L73" s="81"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="68"/>
+      <c r="K73" s="68"/>
+      <c r="L73" s="68"/>
     </row>
     <row r="74" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="61" t="s">
+      <c r="B74" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="86" t="s">
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="87"/>
+      <c r="F74" s="64"/>
       <c r="G74" s="37"/>
       <c r="H74" s="38"/>
       <c r="I74" s="38"/>
@@ -2410,69 +2374,69 @@
     </row>
     <row r="75" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="61" t="s">
+      <c r="B75" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
       <c r="E75" s="33"/>
       <c r="F75" s="28"/>
-      <c r="G75" s="85">
+      <c r="G75" s="75">
         <v>699</v>
       </c>
-      <c r="H75" s="66"/>
-      <c r="I75" s="66"/>
-      <c r="J75" s="82"/>
-      <c r="K75" s="82"/>
-      <c r="L75" s="82"/>
+      <c r="H75" s="76"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="77"/>
+      <c r="K75" s="77"/>
+      <c r="L75" s="77"/>
     </row>
     <row r="76" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="61" t="s">
+      <c r="B76" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
       <c r="E76" s="33"/>
       <c r="F76" s="28"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="82"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="82"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="77"/>
+      <c r="L76" s="77"/>
     </row>
     <row r="77" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="61" t="s">
+      <c r="B77" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
       <c r="E77" s="33"/>
       <c r="F77" s="28"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="82"/>
-      <c r="K77" s="82"/>
-      <c r="L77" s="82"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="76"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="77"/>
+      <c r="L77" s="77"/>
     </row>
     <row r="78" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
       <c r="E78" s="33"/>
       <c r="F78" s="28"/>
-      <c r="G78" s="85"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="82"/>
-      <c r="K78" s="82"/>
-      <c r="L78" s="82"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="77"/>
+      <c r="L78" s="77"/>
     </row>
     <row r="79" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -2532,15 +2496,15 @@
     </row>
     <row r="83" spans="1:14" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="88" t="s">
+      <c r="B83" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="89"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="86" t="s">
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="87"/>
+      <c r="F83" s="64"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="J83" s="6"/>
@@ -2554,10 +2518,10 @@
       </c>
       <c r="C84" s="41"/>
       <c r="D84" s="41"/>
-      <c r="E84" s="86" t="s">
+      <c r="E84" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="F84" s="87"/>
+      <c r="F84" s="64"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="J84" s="6"/>
@@ -2616,10 +2580,10 @@
       </c>
       <c r="C88" s="45"/>
       <c r="D88" s="45"/>
-      <c r="E88" s="58" t="s">
+      <c r="E88" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="F88" s="59"/>
+      <c r="F88" s="95"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="J88" s="6"/>
@@ -2643,21 +2607,21 @@
       <c r="A90" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="60" t="s">
+      <c r="B90" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="60"/>
-      <c r="J90" s="60"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="60"/>
-      <c r="M90" s="60"/>
-      <c r="N90" s="60"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="65"/>
+      <c r="L90" s="65"/>
+      <c r="M90" s="65"/>
+      <c r="N90" s="65"/>
     </row>
     <row r="91" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
@@ -2679,30 +2643,30 @@
       </c>
       <c r="C92" s="46"/>
       <c r="D92" s="31"/>
-      <c r="E92" s="78" t="s">
+      <c r="E92" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="78"/>
-      <c r="G92" s="78"/>
-      <c r="H92" s="78"/>
-      <c r="I92" s="78"/>
-      <c r="J92" s="78"/>
-      <c r="K92" s="78"/>
-      <c r="L92" s="78"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="84"/>
+      <c r="H92" s="84"/>
+      <c r="I92" s="84"/>
+      <c r="J92" s="84"/>
+      <c r="K92" s="84"/>
+      <c r="L92" s="84"/>
     </row>
     <row r="93" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="25"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
-      <c r="E93" s="78"/>
-      <c r="F93" s="78"/>
-      <c r="G93" s="78"/>
-      <c r="H93" s="78"/>
-      <c r="I93" s="78"/>
-      <c r="J93" s="78"/>
-      <c r="K93" s="78"/>
-      <c r="L93" s="78"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="84"/>
+      <c r="I93" s="84"/>
+      <c r="J93" s="84"/>
+      <c r="K93" s="84"/>
+      <c r="L93" s="84"/>
     </row>
     <row r="94" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
@@ -2754,23 +2718,23 @@
       <c r="A97" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B97" s="84" t="s">
+      <c r="B97" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="84"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
-      <c r="G97" s="84"/>
-      <c r="H97" s="84"/>
-      <c r="I97" s="84"/>
-      <c r="J97" s="84"/>
-      <c r="K97" s="84"/>
-      <c r="L97" s="84"/>
-      <c r="M97" s="84"/>
-      <c r="N97" s="84"/>
-      <c r="O97" s="84"/>
-      <c r="P97" s="84"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="74"/>
+      <c r="H97" s="74"/>
+      <c r="I97" s="74"/>
+      <c r="J97" s="74"/>
+      <c r="K97" s="74"/>
+      <c r="L97" s="74"/>
+      <c r="M97" s="74"/>
+      <c r="N97" s="74"/>
+      <c r="O97" s="74"/>
+      <c r="P97" s="74"/>
     </row>
     <row r="98" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27"/>
@@ -2846,6 +2810,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="F54:L54"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="D40:L40"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="D47:L47"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L4"/>
+    <mergeCell ref="E92:L93"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B97:P97"/>
+    <mergeCell ref="B90:N90"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E83:F83"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="B74:D74"/>
@@ -2862,67 +2887,6 @@
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B97:P97"/>
-    <mergeCell ref="B90:N90"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L4"/>
-    <mergeCell ref="E92:L93"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B63:L63"/>
-    <mergeCell ref="D47:L47"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="D49:L49"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="F54:L54"/>
-    <mergeCell ref="B52:L52"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="D40:L40"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B29:L29"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/13.0 FORMATO N°05-B REGISTRO AGREGADO DE IDEAS/F 5B IE SANTA ROSA.xlsx
+++ b/13.0 FORMATO N°05-B REGISTRO AGREGADO DE IDEAS/F 5B IE SANTA ROSA.xlsx
@@ -291,7 +291,7 @@
     <t>0104 EDUCACIÓN PRIMARIA</t>
   </si>
   <si>
-    <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA IEP N°54411, "ANDRES AVELINO CACERES" SANTA ROSA, DISTRITO SANTA ROSA, PROVINCIA GRAU, REGION APURIMAC</t>
+    <t>"OPTIMIZACION MEDIANTE COBERTURA DEL PATIO DE HONOR DE LA IEP N°54408 AYRIHUANCA, DISTRITO MICAELA BASTIDAS, PROVINCIA-GRAU, DEPARTAMENTO APURIMAC"</t>
   </si>
 </sst>
 </file>
@@ -727,6 +727,102 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,110 +841,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1166,8 +1166,8 @@
   </sheetPr>
   <dimension ref="A2:P103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A69" zoomScale="69" zoomScaleNormal="55" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69:I69"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="69" zoomScaleNormal="55" zoomScaleSheetLayoutView="69" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1184,66 +1184,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="77"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1269,15 +1269,15 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="93"/>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
     </row>
@@ -1315,19 +1315,19 @@
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -1349,17 +1349,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="71"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -1367,17 +1367,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -1385,17 +1385,17 @@
         <v>12</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -1403,17 +1403,17 @@
         <v>13</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1447,19 +1447,19 @@
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -1477,21 +1477,21 @@
     </row>
     <row r="20" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="88" t="s">
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
@@ -1507,21 +1507,21 @@
     </row>
     <row r="22" spans="1:12" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
       <c r="G22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="89" t="s">
+      <c r="H22" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
@@ -1628,19 +1628,19 @@
       <c r="A29" s="4">
         <v>4</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -1662,17 +1662,17 @@
         <v>4</v>
       </c>
       <c r="C31" s="28"/>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="71"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="64"/>
     </row>
     <row r="32" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
@@ -1680,17 +1680,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="28"/>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
     </row>
     <row r="33" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -1698,17 +1698,17 @@
         <v>6</v>
       </c>
       <c r="C33" s="28"/>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1716,17 +1716,17 @@
         <v>7</v>
       </c>
       <c r="C34" s="28"/>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
@@ -1760,19 +1760,19 @@
       <c r="A37" s="4">
         <v>5</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -1794,17 +1794,17 @@
         <v>4</v>
       </c>
       <c r="C39" s="28"/>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="71"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="64"/>
     </row>
     <row r="40" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
@@ -1812,17 +1812,17 @@
         <v>5</v>
       </c>
       <c r="C40" s="28"/>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="71"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -1830,17 +1830,17 @@
         <v>8</v>
       </c>
       <c r="C41" s="28"/>
-      <c r="D41" s="69" t="s">
+      <c r="D41" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="71"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -1848,17 +1848,17 @@
         <v>9</v>
       </c>
       <c r="C42" s="28"/>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="71"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -1892,19 +1892,19 @@
       <c r="A45" s="4">
         <v>6</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
     </row>
     <row r="46" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -1926,17 +1926,17 @@
         <v>4</v>
       </c>
       <c r="C47" s="28"/>
-      <c r="D47" s="69" t="s">
+      <c r="D47" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="71"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="64"/>
     </row>
     <row r="48" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
@@ -1944,17 +1944,17 @@
         <v>5</v>
       </c>
       <c r="C48" s="28"/>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="71"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="64"/>
     </row>
     <row r="49" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
@@ -1962,17 +1962,17 @@
         <v>3</v>
       </c>
       <c r="C49" s="28"/>
-      <c r="D49" s="69" t="s">
+      <c r="D49" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="71"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="64"/>
     </row>
     <row r="50" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -2006,19 +2006,19 @@
       <c r="A52" s="4">
         <v>7</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
     </row>
     <row r="53" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -2042,13 +2042,13 @@
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="96"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
     </row>
     <row r="55" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -2068,14 +2068,14 @@
     </row>
     <row r="56" spans="1:12" s="29" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -2120,10 +2120,10 @@
       <c r="C59" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="66" t="s">
+      <c r="D59" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="66"/>
+      <c r="E59" s="69"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -2140,10 +2140,10 @@
       <c r="C60" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="90" t="s">
+      <c r="D60" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="91"/>
+      <c r="E60" s="71"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -2183,19 +2183,19 @@
       <c r="A63" s="4">
         <v>8</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
     </row>
     <row r="64" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
@@ -2212,85 +2212,85 @@
     </row>
     <row r="65" spans="1:12" s="35" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="63" t="s">
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="81"/>
+      <c r="J65" s="81"/>
+      <c r="K65" s="81"/>
+      <c r="L65" s="81"/>
     </row>
     <row r="66" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="62" t="s">
+      <c r="B66" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="92">
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="56">
         <v>369853.65</v>
       </c>
-      <c r="F66" s="93"/>
-      <c r="G66" s="76">
+      <c r="F66" s="57"/>
+      <c r="G66" s="66">
         <v>699</v>
       </c>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="82"/>
     </row>
     <row r="67" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
       <c r="E67" s="33"/>
       <c r="F67" s="28"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="76"/>
-      <c r="J67" s="77"/>
-      <c r="K67" s="77"/>
-      <c r="L67" s="77"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="82"/>
+      <c r="K67" s="82"/>
+      <c r="L67" s="82"/>
     </row>
     <row r="68" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
       <c r="E68" s="33"/>
       <c r="F68" s="28"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="77"/>
-      <c r="K68" s="77"/>
-      <c r="L68" s="77"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
     </row>
     <row r="69" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
       <c r="E69" s="33"/>
       <c r="F69" s="28"/>
-      <c r="G69" s="76">
+      <c r="G69" s="66">
         <v>2</v>
       </c>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="82"/>
+      <c r="K69" s="82"/>
+      <c r="L69" s="82"/>
     </row>
     <row r="70" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -2309,19 +2309,19 @@
       <c r="A71" s="4">
         <v>9</v>
       </c>
-      <c r="B71" s="65" t="s">
+      <c r="B71" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
+      <c r="L71" s="60"/>
     </row>
     <row r="72" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -2338,33 +2338,33 @@
     </row>
     <row r="73" spans="1:12" s="29" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="66" t="s">
+      <c r="B73" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="63" t="s">
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="64"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="68"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="81"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="81"/>
+      <c r="K73" s="81"/>
+      <c r="L73" s="81"/>
     </row>
     <row r="74" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="63" t="s">
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="64"/>
+      <c r="F74" s="87"/>
       <c r="G74" s="37"/>
       <c r="H74" s="38"/>
       <c r="I74" s="38"/>
@@ -2374,69 +2374,69 @@
     </row>
     <row r="75" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="62" t="s">
+      <c r="B75" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
       <c r="E75" s="33"/>
       <c r="F75" s="28"/>
-      <c r="G75" s="75">
+      <c r="G75" s="85">
         <v>699</v>
       </c>
-      <c r="H75" s="76"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="77"/>
-      <c r="K75" s="77"/>
-      <c r="L75" s="77"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="82"/>
+      <c r="K75" s="82"/>
+      <c r="L75" s="82"/>
     </row>
     <row r="76" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="62" t="s">
+      <c r="B76" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
       <c r="E76" s="33"/>
       <c r="F76" s="28"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="77"/>
-      <c r="K76" s="77"/>
-      <c r="L76" s="77"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
     </row>
     <row r="77" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="62" t="s">
+      <c r="B77" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
       <c r="E77" s="33"/>
       <c r="F77" s="28"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="82"/>
+      <c r="K77" s="82"/>
+      <c r="L77" s="82"/>
     </row>
     <row r="78" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
       <c r="E78" s="33"/>
       <c r="F78" s="28"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="76"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="77"/>
-      <c r="K78" s="77"/>
-      <c r="L78" s="77"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
     </row>
     <row r="79" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -2496,15 +2496,15 @@
     </row>
     <row r="83" spans="1:14" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="63" t="s">
+      <c r="C83" s="89"/>
+      <c r="D83" s="90"/>
+      <c r="E83" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="64"/>
+      <c r="F83" s="87"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="J83" s="6"/>
@@ -2518,10 +2518,10 @@
       </c>
       <c r="C84" s="41"/>
       <c r="D84" s="41"/>
-      <c r="E84" s="63" t="s">
+      <c r="E84" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="F84" s="64"/>
+      <c r="F84" s="87"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="J84" s="6"/>
@@ -2580,10 +2580,10 @@
       </c>
       <c r="C88" s="45"/>
       <c r="D88" s="45"/>
-      <c r="E88" s="94" t="s">
+      <c r="E88" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="F88" s="95"/>
+      <c r="F88" s="59"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="J88" s="6"/>
@@ -2607,21 +2607,21 @@
       <c r="A90" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="65" t="s">
+      <c r="B90" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="65"/>
-      <c r="K90" s="65"/>
-      <c r="L90" s="65"/>
-      <c r="M90" s="65"/>
-      <c r="N90" s="65"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="60"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="60"/>
+      <c r="N90" s="60"/>
     </row>
     <row r="91" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
@@ -2643,30 +2643,30 @@
       </c>
       <c r="C92" s="46"/>
       <c r="D92" s="31"/>
-      <c r="E92" s="84" t="s">
+      <c r="E92" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="84"/>
-      <c r="G92" s="84"/>
-      <c r="H92" s="84"/>
-      <c r="I92" s="84"/>
-      <c r="J92" s="84"/>
-      <c r="K92" s="84"/>
-      <c r="L92" s="84"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="78"/>
+      <c r="H92" s="78"/>
+      <c r="I92" s="78"/>
+      <c r="J92" s="78"/>
+      <c r="K92" s="78"/>
+      <c r="L92" s="78"/>
     </row>
     <row r="93" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="25"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="84"/>
-      <c r="H93" s="84"/>
-      <c r="I93" s="84"/>
-      <c r="J93" s="84"/>
-      <c r="K93" s="84"/>
-      <c r="L93" s="84"/>
+      <c r="E93" s="78"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="78"/>
+      <c r="H93" s="78"/>
+      <c r="I93" s="78"/>
+      <c r="J93" s="78"/>
+      <c r="K93" s="78"/>
+      <c r="L93" s="78"/>
     </row>
     <row r="94" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
@@ -2718,23 +2718,23 @@
       <c r="A97" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B97" s="74" t="s">
+      <c r="B97" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="74"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="74"/>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="74"/>
-      <c r="K97" s="74"/>
-      <c r="L97" s="74"/>
-      <c r="M97" s="74"/>
-      <c r="N97" s="74"/>
-      <c r="O97" s="74"/>
-      <c r="P97" s="74"/>
+      <c r="C97" s="84"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="84"/>
+      <c r="I97" s="84"/>
+      <c r="J97" s="84"/>
+      <c r="K97" s="84"/>
+      <c r="L97" s="84"/>
+      <c r="M97" s="84"/>
+      <c r="N97" s="84"/>
+      <c r="O97" s="84"/>
+      <c r="P97" s="84"/>
     </row>
     <row r="98" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27"/>
@@ -2810,6 +2810,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="B71:L71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B97:P97"/>
+    <mergeCell ref="B90:N90"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L4"/>
+    <mergeCell ref="E92:L93"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="D47:L47"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="B10:L10"/>
@@ -2826,67 +2887,6 @@
     <mergeCell ref="D40:L40"/>
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="B29:L29"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B63:L63"/>
-    <mergeCell ref="D47:L47"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="D49:L49"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L4"/>
-    <mergeCell ref="E92:L93"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B97:P97"/>
-    <mergeCell ref="B90:N90"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="B71:L71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B56:G56"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
